--- a/meta/program/BlancoRestGeneratorTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C2D607-0A23-004A-A6BE-BED6213481C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3668585-3904-7546-94C7-232B79EF74A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2140" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,11 @@
     <definedName name="デリミタ">#REF!</definedName>
     <definedName name="デリミタ選択肢">#REF!</definedName>
     <definedName name="型">#REF!</definedName>
+    <definedName name="型リスト">config!$A$5:$A$10</definedName>
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -271,6 +272,326 @@
   </si>
   <si>
     <t>API定義書からAPIスタブクラスを自動生成するBlancoRestGeneratorのためのAntTaskです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>trueの場合はサーバ用のメソッドを生成しません。</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">セイセイシマセン。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>serverType</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Webアプリケーションサーバのタイプを指定します。現在の所、tomcatのみが使用可能です。</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ゲンザイノトコロ </t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t xml:space="preserve">シヨウカノウデス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名の後ろに追加するパッケージ文字列を指定します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overrideLocation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたロケーション名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voPackageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの packageSuffix を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voOverridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの overridePackage を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>整数(int)</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>整数(long)</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数値(decimal)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreDefault</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のデフォルト値を無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ムシシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のアノテーションを無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ムシシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>telegrampackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の基底クラスが配備されているパッケージを指定します。指定がない場合はvalueobjectから探します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キテイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハイビ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイシマス。</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t xml:space="preserve">サガシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>processBaseClass</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文処理の基底クラスを指定します。指定がない場合はblanco.restgenerator.common.ApiBaseとなります。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">キテイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイシマス。</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -333,7 +654,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +679,14 @@
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -711,11 +1038,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,6 +1184,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -826,6 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1217,7 +1608,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1261,7 +1652,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1286,10 +1677,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1334,10 +1725,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1347,10 +1738,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1360,10 +1751,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1375,10 +1766,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1412,40 +1803,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1494,7 +1885,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A21" si="0">A15+1</f>
+        <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1520,43 +1911,43 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>24</v>
+      <c r="B17" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>36</v>
+      <c r="B18" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
@@ -1564,18 +1955,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="B19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -1587,202 +1976,331 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>33</v>
+      <c r="B20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>31</v>
+      <c r="E20" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="63" customHeight="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="63" customHeight="1">
+      <c r="A22" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="56" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F22" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="E23" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="E24" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="E27" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+    </row>
+    <row r="28" spans="1:10" s="63" customFormat="1">
+      <c r="A28" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="60"/>
+    </row>
+    <row r="29" spans="1:10" s="63" customFormat="1">
+      <c r="A29" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="60"/>
+    </row>
+    <row r="30" spans="1:10" s="63" customFormat="1">
+      <c r="A30" s="27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="27"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="27"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="E33" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="27"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="E34" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="27"/>
@@ -1797,7 +2315,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="34"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="29"/>
@@ -1809,7 +2327,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="29"/>
@@ -1821,20 +2339,152 @@
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="27"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="27"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="27"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="27"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="27"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="34"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="34"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
@@ -1847,12 +2497,18 @@
     <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D22:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C27:C49" xr:uid="{19DD6A3C-A5DD-0544-96F2-8B8D8DA816D2}">
+      <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16 D35:D49 D18:D24 D27:D32" xr:uid="{78445AB0-9400-7A43-BA63-9EA5A5ED49CC}">
+      <formula1>必須</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D17 D33:D34 D25:D26" xr:uid="{0BA8ED15-AA00-B44F-A492-05A5F7CCEDA2}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1869,7 +2525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1902,46 +2560,58 @@
       <c r="D2" s="42"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4"/>
+      <c r="A4" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="B4"/>
       <c r="C4" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5"/>
+      <c r="A5" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="B5"/>
       <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6"/>
+      <c r="A6" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="B6"/>
       <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7"/>
+      <c r="A7" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8"/>
+      <c r="A8" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9"/>
+      <c r="A9" s="66" t="s">
+        <v>34</v>
+      </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10"/>
+      <c r="A10" s="66"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11"/>
+      <c r="A11" s="66"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12"/>
+      <c r="A12" s="67"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoRestGeneratorTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3668585-3904-7546-94C7-232B79EF74A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC7B52-7EB1-7E49-A438-1C8B69930B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2140" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -590,6 +590,26 @@
       <t xml:space="preserve">シテイガ </t>
     </rPh>
     <rPh sb="22" eb="24">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>defaultExceptionClass</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>デフォルトの例外クラスを指定します。指定がない場合はblanco.restgenerator.exception.BlancoRestExceptionとなります。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">レイガイ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイシマス。</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t xml:space="preserve">バアイハ </t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -1193,6 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1216,7 +1237,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1608,7 +1628,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1652,7 +1672,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1677,10 +1697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A34"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1725,10 +1745,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1738,10 +1758,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1751,10 +1771,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1766,10 +1786,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1803,40 +1823,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1885,7 +1905,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A34" si="0">A15+1</f>
+        <f t="shared" ref="A16:A35" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2032,12 +2052,12 @@
       <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
@@ -2134,42 +2154,42 @@
         <v>14</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="55" t="s">
-        <v>54</v>
-      </c>
+      <c r="E27" s="55"/>
       <c r="F27" s="59" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
       <c r="I27" s="59"/>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" spans="1:10" s="63" customFormat="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="B28" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" s="63" customFormat="1">
@@ -2178,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>35</v>
@@ -2186,7 +2206,7 @@
       <c r="D29" s="52"/>
       <c r="E29" s="61"/>
       <c r="F29" s="62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
@@ -2199,7 +2219,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="46" t="s">
         <v>35</v>
@@ -2207,32 +2227,32 @@
       <c r="D30" s="52"/>
       <c r="E30" s="61"/>
       <c r="F30" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
       <c r="J30" s="60"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" s="63" customFormat="1">
       <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>62</v>
+      <c r="B31" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10">
@@ -2241,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>35</v>
@@ -2249,7 +2269,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="55"/>
       <c r="F32" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>
@@ -2262,17 +2282,15 @@
         <v>20</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>73</v>
+      <c r="E33" s="55"/>
+      <c r="F33" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
@@ -2285,7 +2303,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>34</v>
@@ -2294,8 +2312,8 @@
       <c r="E34" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="77" t="s">
-        <v>75</v>
+      <c r="F34" s="68" t="s">
+        <v>73</v>
       </c>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
@@ -2303,16 +2321,27 @@
       <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="27"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="E35" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="27"/>
@@ -2352,8 +2381,8 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
       <c r="F39" s="31"/>
@@ -2388,8 +2417,8 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="27"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
       <c r="F42" s="31"/>
@@ -2447,7 +2476,7 @@
       <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="34"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="29"/>
@@ -2471,16 +2500,28 @@
       <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2498,17 +2539,17 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C27:C49" xr:uid="{19DD6A3C-A5DD-0544-96F2-8B8D8DA816D2}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C28:C50" xr:uid="{19DD6A3C-A5DD-0544-96F2-8B8D8DA816D2}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16 D35:D49 D18:D24 D27:D32" xr:uid="{78445AB0-9400-7A43-BA63-9EA5A5ED49CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16 D36:D50 D18:D24 D28:D33" xr:uid="{78445AB0-9400-7A43-BA63-9EA5A5ED49CC}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D17 D33:D34 D25:D26" xr:uid="{0BA8ED15-AA00-B44F-A492-05A5F7CCEDA2}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D17 D34:D35 D25:D27" xr:uid="{0BA8ED15-AA00-B44F-A492-05A5F7CCEDA2}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC7B52-7EB1-7E49-A438-1C8B69930B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E898D8-08AA-0E4B-90FE-EA349D6E3029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2140" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -611,6 +611,23 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreImport</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のインポートを無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ムシシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1628,7 +1645,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1672,7 +1689,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1697,10 +1714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1905,7 +1922,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A35" si="0">A15+1</f>
+        <f t="shared" ref="A16:A36" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2344,16 +2361,27 @@
       <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="27"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="E36" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="27"/>
@@ -2393,8 +2421,8 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
       <c r="F40" s="31"/>
@@ -2429,8 +2457,8 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="27"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
       <c r="F43" s="31"/>
@@ -2488,7 +2516,7 @@
       <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="34"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="29"/>
@@ -2512,16 +2540,28 @@
       <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2539,17 +2579,17 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C28:C50" xr:uid="{19DD6A3C-A5DD-0544-96F2-8B8D8DA816D2}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C28:C51" xr:uid="{19DD6A3C-A5DD-0544-96F2-8B8D8DA816D2}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16 D36:D50 D18:D24 D28:D33" xr:uid="{78445AB0-9400-7A43-BA63-9EA5A5ED49CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16 D37:D51 D18:D24 D28:D33" xr:uid="{78445AB0-9400-7A43-BA63-9EA5A5ED49CC}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D17 D34:D35 D25:D27" xr:uid="{0BA8ED15-AA00-B44F-A492-05A5F7CCEDA2}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D17 D25:D27 D34:D36" xr:uid="{0BA8ED15-AA00-B44F-A492-05A5F7CCEDA2}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E898D8-08AA-0E4B-90FE-EA349D6E3029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6CF5A0-0CEE-F443-A519-B84D16E5591F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2140" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -628,6 +628,32 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t xml:space="preserve">ムシシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>telegramsOnly</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文のみを生成し、電文処理は生成しません。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノミヲ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ショリハ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">セイセイシマセン。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1645,7 +1671,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1689,7 +1715,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1717,7 +1743,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1922,7 +1948,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A36" si="0">A15+1</f>
+        <f t="shared" ref="A16:A37" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2384,12 +2410,23 @@
       <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="27"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
